--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H2">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J2">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.5932770379113</v>
+        <v>2.982494</v>
       </c>
       <c r="N2">
-        <v>17.5932770379113</v>
+        <v>8.947482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2042828833523204</v>
+        <v>0.03298370693390099</v>
       </c>
       <c r="P2">
-        <v>0.2042828833523204</v>
+        <v>0.03298370693390098</v>
       </c>
       <c r="Q2">
-        <v>320.434620971006</v>
+        <v>0.7537160003866669</v>
       </c>
       <c r="R2">
-        <v>320.434620971006</v>
+        <v>6.783444003480001</v>
       </c>
       <c r="S2">
-        <v>0.1784034926360226</v>
+        <v>0.0003855350388469141</v>
       </c>
       <c r="T2">
-        <v>0.1784034926360226</v>
+        <v>0.000385535038846914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H3">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J3">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.2682970669529</v>
+        <v>17.94962433333333</v>
       </c>
       <c r="N3">
-        <v>32.2682970669529</v>
+        <v>53.848873</v>
       </c>
       <c r="O3">
-        <v>0.3746806664558132</v>
+        <v>0.1985067358339311</v>
       </c>
       <c r="P3">
-        <v>0.3746806664558132</v>
+        <v>0.1985067358339311</v>
       </c>
       <c r="Q3">
-        <v>587.7176558834227</v>
+        <v>4.536109397357778</v>
       </c>
       <c r="R3">
-        <v>587.7176558834227</v>
+        <v>40.82498457622</v>
       </c>
       <c r="S3">
-        <v>0.3272145880358724</v>
+        <v>0.002320275955170129</v>
       </c>
       <c r="T3">
-        <v>0.3272145880358724</v>
+        <v>0.002320275955170129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,173 +661,173 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.2134698544512</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H4">
-        <v>18.2134698544512</v>
+        <v>0.75814</v>
       </c>
       <c r="I4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J4">
-        <v>0.8733159122702197</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.2605559003635</v>
+        <v>32.28368133333333</v>
       </c>
       <c r="N4">
-        <v>36.2605559003635</v>
+        <v>96.851044</v>
       </c>
       <c r="O4">
-        <v>0.4210364501918665</v>
+        <v>0.3570285418331491</v>
       </c>
       <c r="P4">
-        <v>0.4210364501918665</v>
+        <v>0.3570285418331491</v>
       </c>
       <c r="Q4">
-        <v>660.4305417969132</v>
+        <v>8.158516722017778</v>
       </c>
       <c r="R4">
-        <v>660.4305417969132</v>
+        <v>73.42665049816</v>
       </c>
       <c r="S4">
-        <v>0.3676978315983248</v>
+        <v>0.004173182020472819</v>
       </c>
       <c r="T4">
-        <v>0.3676978315983248</v>
+        <v>0.004173182020472819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.64206432115377</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H5">
-        <v>2.64206432115377</v>
+        <v>0.75814</v>
       </c>
       <c r="I5">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J5">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.5932770379113</v>
+        <v>36.548809</v>
       </c>
       <c r="N5">
-        <v>17.5932770379113</v>
+        <v>109.646427</v>
       </c>
       <c r="O5">
-        <v>0.2042828833523204</v>
+        <v>0.4041970259920464</v>
       </c>
       <c r="P5">
-        <v>0.2042828833523204</v>
+        <v>0.4041970259920464</v>
       </c>
       <c r="Q5">
-        <v>46.48256955403933</v>
+        <v>9.236371351753334</v>
       </c>
       <c r="R5">
-        <v>46.48256955403933</v>
+        <v>83.12734216578001</v>
       </c>
       <c r="S5">
-        <v>0.02587939071629782</v>
+        <v>0.004724517969733867</v>
       </c>
       <c r="T5">
-        <v>0.02587939071629782</v>
+        <v>0.004724517969733867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.64206432115377</v>
+        <v>0.2527133333333333</v>
       </c>
       <c r="H6">
-        <v>2.64206432115377</v>
+        <v>0.75814</v>
       </c>
       <c r="I6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="J6">
-        <v>0.1266840877297802</v>
+        <v>0.01168865099424763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>32.2682970669529</v>
+        <v>0.6586419999999999</v>
       </c>
       <c r="N6">
-        <v>32.2682970669529</v>
+        <v>1.975926</v>
       </c>
       <c r="O6">
-        <v>0.3746806664558132</v>
+        <v>0.007283989406972288</v>
       </c>
       <c r="P6">
-        <v>0.3746806664558132</v>
+        <v>0.007283989406972288</v>
       </c>
       <c r="Q6">
-        <v>85.2549163849871</v>
+        <v>0.1664476152933333</v>
       </c>
       <c r="R6">
-        <v>85.2549163849871</v>
+        <v>1.49802853764</v>
       </c>
       <c r="S6">
-        <v>0.04746607841994077</v>
+        <v>8.51400100238958E-05</v>
       </c>
       <c r="T6">
-        <v>0.04746607841994077</v>
+        <v>8.51400100238958E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.279338</v>
+      </c>
+      <c r="H7">
+        <v>54.838014</v>
+      </c>
+      <c r="I7">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J7">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.982494</v>
+      </c>
+      <c r="N7">
+        <v>8.947482000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.03298370693390099</v>
+      </c>
+      <c r="P7">
+        <v>0.03298370693390098</v>
+      </c>
+      <c r="Q7">
+        <v>54.518015908972</v>
+      </c>
+      <c r="R7">
+        <v>490.662143180748</v>
+      </c>
+      <c r="S7">
+        <v>0.02788663816416179</v>
+      </c>
+      <c r="T7">
+        <v>0.02788663816416178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.279338</v>
+      </c>
+      <c r="H8">
+        <v>54.838014</v>
+      </c>
+      <c r="I8">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J8">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.94962433333333</v>
+      </c>
+      <c r="N8">
+        <v>53.848873</v>
+      </c>
+      <c r="O8">
+        <v>0.1985067358339311</v>
+      </c>
+      <c r="P8">
+        <v>0.1985067358339311</v>
+      </c>
+      <c r="Q8">
+        <v>328.1072501620246</v>
+      </c>
+      <c r="R8">
+        <v>2952.965251458222</v>
+      </c>
+      <c r="S8">
+        <v>0.1678309089528094</v>
+      </c>
+      <c r="T8">
+        <v>0.1678309089528094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.279338</v>
+      </c>
+      <c r="H9">
+        <v>54.838014</v>
+      </c>
+      <c r="I9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J9">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>32.28368133333333</v>
+      </c>
+      <c r="N9">
+        <v>96.851044</v>
+      </c>
+      <c r="O9">
+        <v>0.3570285418331491</v>
+      </c>
+      <c r="P9">
+        <v>0.3570285418331491</v>
+      </c>
+      <c r="Q9">
+        <v>590.1243229762906</v>
+      </c>
+      <c r="R9">
+        <v>5311.118906786616</v>
+      </c>
+      <c r="S9">
+        <v>0.3018558763067992</v>
+      </c>
+      <c r="T9">
+        <v>0.3018558763067992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.279338</v>
+      </c>
+      <c r="H10">
+        <v>54.838014</v>
+      </c>
+      <c r="I10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J10">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>36.548809</v>
+      </c>
+      <c r="N10">
+        <v>109.646427</v>
+      </c>
+      <c r="O10">
+        <v>0.4041970259920464</v>
+      </c>
+      <c r="P10">
+        <v>0.4041970259920464</v>
+      </c>
+      <c r="Q10">
+        <v>668.088033208442</v>
+      </c>
+      <c r="R10">
+        <v>6012.792298875978</v>
+      </c>
+      <c r="S10">
+        <v>0.3417352765551446</v>
+      </c>
+      <c r="T10">
+        <v>0.3417352765551446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.279338</v>
+      </c>
+      <c r="H11">
+        <v>54.838014</v>
+      </c>
+      <c r="I11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="J11">
+        <v>0.8454670731839307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6586419999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.975926</v>
+      </c>
+      <c r="O11">
+        <v>0.007283989406972288</v>
+      </c>
+      <c r="P11">
+        <v>0.007283989406972288</v>
+      </c>
+      <c r="Q11">
+        <v>12.039539738996</v>
+      </c>
+      <c r="R11">
+        <v>108.355857650964</v>
+      </c>
+      <c r="S11">
+        <v>0.006158373205015615</v>
+      </c>
+      <c r="T11">
+        <v>0.006158373205015615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H12">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J12">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>2.982494</v>
+      </c>
+      <c r="N12">
+        <v>8.947482000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.03298370693390099</v>
+      </c>
+      <c r="P12">
+        <v>0.03298370693390098</v>
+      </c>
+      <c r="Q12">
+        <v>9.210987333229335</v>
+      </c>
+      <c r="R12">
+        <v>82.89888599906402</v>
+      </c>
+      <c r="S12">
+        <v>0.004711533730892288</v>
+      </c>
+      <c r="T12">
+        <v>0.004711533730892286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H13">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J13">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.94962433333333</v>
+      </c>
+      <c r="N13">
+        <v>53.848873</v>
+      </c>
+      <c r="O13">
+        <v>0.1985067358339311</v>
+      </c>
+      <c r="P13">
+        <v>0.1985067358339311</v>
+      </c>
+      <c r="Q13">
+        <v>55.43473427626623</v>
+      </c>
+      <c r="R13">
+        <v>498.912608486396</v>
+      </c>
+      <c r="S13">
+        <v>0.02835555092595156</v>
+      </c>
+      <c r="T13">
+        <v>0.02835555092595156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="H7">
-        <v>2.64206432115377</v>
-      </c>
-      <c r="I7">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="J7">
-        <v>0.1266840877297802</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>36.2605559003635</v>
-      </c>
-      <c r="N7">
-        <v>36.2605559003635</v>
-      </c>
-      <c r="O7">
-        <v>0.4210364501918665</v>
-      </c>
-      <c r="P7">
-        <v>0.4210364501918665</v>
-      </c>
-      <c r="Q7">
-        <v>95.80272100955223</v>
-      </c>
-      <c r="R7">
-        <v>95.80272100955223</v>
-      </c>
-      <c r="S7">
-        <v>0.05333861859354166</v>
-      </c>
-      <c r="T7">
-        <v>0.05333861859354166</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J14">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>32.28368133333333</v>
+      </c>
+      <c r="N14">
+        <v>96.851044</v>
+      </c>
+      <c r="O14">
+        <v>0.3570285418331491</v>
+      </c>
+      <c r="P14">
+        <v>0.3570285418331491</v>
+      </c>
+      <c r="Q14">
+        <v>99.70332876825424</v>
+      </c>
+      <c r="R14">
+        <v>897.3299589142881</v>
+      </c>
+      <c r="S14">
+        <v>0.05099948350587719</v>
+      </c>
+      <c r="T14">
+        <v>0.05099948350587719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J15">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.548809</v>
+      </c>
+      <c r="N15">
+        <v>109.646427</v>
+      </c>
+      <c r="O15">
+        <v>0.4041970259920464</v>
+      </c>
+      <c r="P15">
+        <v>0.4041970259920464</v>
+      </c>
+      <c r="Q15">
+        <v>112.8755386410227</v>
+      </c>
+      <c r="R15">
+        <v>1015.879847769204</v>
+      </c>
+      <c r="S15">
+        <v>0.05773723146716794</v>
+      </c>
+      <c r="T15">
+        <v>0.05773723146716794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.088350666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.265052000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="J16">
+        <v>0.1428442758218218</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6586419999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.975926</v>
+      </c>
+      <c r="O16">
+        <v>0.007283989406972288</v>
+      </c>
+      <c r="P16">
+        <v>0.007283989406972288</v>
+      </c>
+      <c r="Q16">
+        <v>2.034117459794667</v>
+      </c>
+      <c r="R16">
+        <v>18.307057138152</v>
+      </c>
+      <c r="S16">
+        <v>0.001040476191932777</v>
+      </c>
+      <c r="T16">
+        <v>0.001040476191932777</v>
       </c>
     </row>
   </sheetData>
